--- a/Testing/SpringIV/TestCaseSprintIV.xlsx
+++ b/Testing/SpringIV/TestCaseSprintIV.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56BB7563-85C3-4FE1-909E-072F601061A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B8C6B-263B-4F93-8828-0C66E6F9C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCF39S4" sheetId="60" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="165">
   <si>
     <t>Priority</t>
   </si>
@@ -533,6 +533,12 @@
   </si>
   <si>
     <t>TCF39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Visualizar el icono de "Mis compras"</t>
   </si>
 </sst>
 </file>
@@ -951,44 +957,29 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,26 +990,32 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1047,56 +1044,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1116,14 +1122,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1412,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94CBFAF-D082-4CF7-A8A2-D03CBB769F36}">
-  <dimension ref="B1:V52"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1435,22 +1441,22 @@
     <col min="24" max="24" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1461,7 +1467,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="13" t="s">
         <v>17</v>
@@ -1475,7 +1481,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="14" t="s">
         <v>162</v>
@@ -1516,7 +1522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="3"/>
@@ -1555,7 +1561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
       <c r="C7" s="13" t="s">
         <v>19</v>
@@ -1595,16 +1601,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1640,18 +1646,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -1660,18 +1669,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -1680,52 +1689,52 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1740,7 +1749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="13" t="s">
         <v>4</v>
@@ -1759,11 +1768,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -1805,11 +1814,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -1843,11 +1852,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -1862,11 +1871,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -1885,156 +1894,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -2053,16 +2062,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -2071,14 +2080,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -2094,16 +2103,16 @@
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="67" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="18"/>
@@ -2115,18 +2124,18 @@
       <c r="C40" s="18">
         <v>2</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="31" t="s">
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="67" t="s">
         <v>89</v>
       </c>
       <c r="J40" s="18"/>
@@ -2138,20 +2147,20 @@
       <c r="C41" s="18">
         <v>3</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="67" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="19"/>
@@ -2163,20 +2172,20 @@
       <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="66">
         <v>123456789</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="31" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="67" t="s">
         <v>91</v>
       </c>
       <c r="J42" s="19"/>
@@ -2188,18 +2197,18 @@
       <c r="C43" s="18">
         <v>5</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="67" t="s">
         <v>135</v>
       </c>
       <c r="J43" s="19"/>
@@ -2211,18 +2220,18 @@
       <c r="C44" s="18">
         <v>6</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" s="32" t="s">
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="67" t="s">
         <v>136</v>
       </c>
       <c r="J44" s="19"/>
@@ -2234,18 +2243,18 @@
       <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31" t="s">
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="67" t="s">
         <v>139</v>
       </c>
       <c r="J45" s="19"/>
@@ -2256,142 +2265,102 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="18">
         <v>13</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="52" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="K46:K52"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="D47:E47"/>
@@ -2408,9 +2377,49 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificador" prompt="Id unico" sqref="C5" xr:uid="{702E8D6F-336F-4942-A6E7-D35907D0001F}"/>
@@ -2475,18 +2484,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -2635,14 +2644,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -2680,16 +2689,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -2700,16 +2709,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -2720,14 +2729,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -2735,14 +2744,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -2750,14 +2759,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -2797,11 +2806,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -2843,11 +2852,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -2881,11 +2890,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -2923,156 +2932,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -3091,16 +3100,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -3109,14 +3118,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -3136,8 +3145,8 @@
         <v>65</v>
       </c>
       <c r="E39" s="79"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="78" t="s">
         <v>74</v>
       </c>
@@ -3159,8 +3168,8 @@
       <c r="E40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="78" t="s">
         <v>89</v>
       </c>
@@ -3182,10 +3191,10 @@
       <c r="E41" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="32"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="78" t="s">
         <v>90</v>
       </c>
@@ -3207,10 +3216,10 @@
       <c r="E42" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="66">
         <v>123456789</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="78" t="s">
         <v>91</v>
       </c>
@@ -3232,8 +3241,8 @@
       <c r="E43" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="78" t="s">
         <v>135</v>
       </c>
@@ -3255,8 +3264,8 @@
       <c r="E44" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="78" t="s">
         <v>136</v>
       </c>
@@ -3278,8 +3287,8 @@
       <c r="E45" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="78" t="s">
         <v>137</v>
       </c>
@@ -3294,142 +3303,102 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="18">
         <v>13</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="52" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="K46:K52"/>
     <mergeCell ref="B47:B52"/>
     <mergeCell ref="D47:E47"/>
@@ -3446,9 +3415,49 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{83EC883F-ABAE-4BFC-A603-9F1756FD9E54}">
@@ -3513,18 +3522,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -3673,14 +3682,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -3718,16 +3727,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -3738,16 +3747,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -3758,14 +3767,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -3773,14 +3782,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -3788,14 +3797,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -3835,11 +3844,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -3881,11 +3890,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -3919,11 +3928,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -3961,156 +3970,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -4129,16 +4138,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -4147,14 +4156,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -4170,16 +4179,16 @@
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="67" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="18"/>
@@ -4191,18 +4200,18 @@
       <c r="C40" s="18">
         <v>2</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="31" t="s">
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="67" t="s">
         <v>89</v>
       </c>
       <c r="J40" s="18"/>
@@ -4214,20 +4223,20 @@
       <c r="C41" s="18">
         <v>3</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="67" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="19"/>
@@ -4239,20 +4248,20 @@
       <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="66">
         <v>123456789</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="31" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="67" t="s">
         <v>91</v>
       </c>
       <c r="J42" s="19"/>
@@ -4264,18 +4273,18 @@
       <c r="C43" s="18">
         <v>5</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="67" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="19"/>
@@ -4287,18 +4296,18 @@
       <c r="C44" s="18">
         <v>6</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="31" t="s">
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="67" t="s">
         <v>76</v>
       </c>
       <c r="J44" s="19"/>
@@ -4310,18 +4319,18 @@
       <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31" t="s">
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="67" t="s">
         <v>93</v>
       </c>
       <c r="J45" s="19"/>
@@ -4332,176 +4341,136 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31" t="s">
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="67" t="s">
         <v>94</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31" t="s">
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="67" t="s">
         <v>95</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="31" t="s">
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="67" t="s">
         <v>96</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="73">
         <v>45102</v>
       </c>
-      <c r="G49" s="32"/>
-      <c r="H49" s="31" t="s">
+      <c r="G49" s="67"/>
+      <c r="H49" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="67" t="s">
         <v>103</v>
       </c>
       <c r="J49" s="19"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="18">
         <v>13</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="52" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
@@ -4518,9 +4487,49 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificador" prompt="Id unico" sqref="C5" xr:uid="{00C15738-CCA6-41F5-A7ED-A70209CF8958}"/>
@@ -4585,18 +4594,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -4745,14 +4754,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -4790,16 +4799,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -4810,16 +4819,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -4830,14 +4839,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -4845,14 +4854,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -4860,14 +4869,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -4907,11 +4916,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -4953,11 +4962,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -4991,11 +5000,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -5010,11 +5019,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -5033,156 +5042,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -5201,16 +5210,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -5219,14 +5228,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -5246,8 +5255,8 @@
         <v>65</v>
       </c>
       <c r="E39" s="79"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="78" t="s">
         <v>74</v>
       </c>
@@ -5269,8 +5278,8 @@
       <c r="E40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="78" t="s">
         <v>89</v>
       </c>
@@ -5292,10 +5301,10 @@
       <c r="E41" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="32"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="78" t="s">
         <v>90</v>
       </c>
@@ -5317,10 +5326,10 @@
       <c r="E42" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="66">
         <v>123456789</v>
       </c>
-      <c r="G42" s="32"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="78" t="s">
         <v>91</v>
       </c>
@@ -5342,8 +5351,8 @@
       <c r="E43" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="78" t="s">
         <v>92</v>
       </c>
@@ -5365,8 +5374,8 @@
       <c r="E44" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="78" t="s">
         <v>76</v>
       </c>
@@ -5388,8 +5397,8 @@
       <c r="E45" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="78" t="s">
         <v>93</v>
       </c>
@@ -5410,8 +5419,8 @@
       <c r="E46" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
       <c r="H46" s="78" t="s">
         <v>94</v>
       </c>
@@ -5419,10 +5428,10 @@
         <v>94</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
@@ -5432,8 +5441,8 @@
       <c r="E47" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
       <c r="H47" s="78" t="s">
         <v>95</v>
       </c>
@@ -5441,10 +5450,10 @@
         <v>95</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
@@ -5452,8 +5461,8 @@
         <v>88</v>
       </c>
       <c r="E48" s="81"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="78" t="s">
         <v>96</v>
       </c>
@@ -5461,19 +5470,19 @@
         <v>96</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
       <c r="D49" s="82"/>
       <c r="E49" s="83"/>
-      <c r="F49" s="39">
+      <c r="F49" s="73">
         <v>45102</v>
       </c>
-      <c r="G49" s="32"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="78" t="s">
         <v>97</v>
       </c>
@@ -5481,93 +5490,52 @@
         <v>97</v>
       </c>
       <c r="J49" s="19"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="32"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="18">
         <v>13</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="52" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
@@ -5584,8 +5552,49 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{24DAF0D0-DB17-49AA-90FF-41695A3C0B9F}">
@@ -5650,18 +5659,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -5810,14 +5819,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -5855,16 +5864,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -5875,16 +5884,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -5895,14 +5904,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -5910,14 +5919,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -5925,14 +5934,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -5972,11 +5981,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -6018,11 +6027,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -6056,11 +6065,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -6075,11 +6084,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -6098,156 +6107,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -6266,16 +6275,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -6284,14 +6293,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -6311,8 +6320,8 @@
         <v>65</v>
       </c>
       <c r="E39" s="79"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="78" t="s">
         <v>74</v>
       </c>
@@ -6334,8 +6343,8 @@
       <c r="E40" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="78" t="s">
         <v>89</v>
       </c>
@@ -6380,8 +6389,8 @@
       <c r="E42" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="78" t="s">
         <v>91</v>
       </c>
@@ -6403,8 +6412,8 @@
       <c r="E43" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="78" t="s">
         <v>92</v>
       </c>
@@ -6426,8 +6435,8 @@
       <c r="E44" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="78" t="s">
         <v>76</v>
       </c>
@@ -6449,8 +6458,8 @@
       <c r="E45" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
       <c r="H45" s="78" t="s">
         <v>93</v>
       </c>
@@ -6471,8 +6480,8 @@
       <c r="E46" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
       <c r="H46" s="78" t="s">
         <v>94</v>
       </c>
@@ -6480,10 +6489,10 @@
         <v>94</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
@@ -6493,8 +6502,8 @@
       <c r="E47" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
       <c r="H47" s="78" t="s">
         <v>117</v>
       </c>
@@ -6502,10 +6511,10 @@
         <v>117</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
@@ -6515,10 +6524,10 @@
       <c r="E48" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="31" t="s">
+      <c r="F48" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="32"/>
+      <c r="G48" s="67"/>
       <c r="H48" s="78" t="s">
         <v>118</v>
       </c>
@@ -6526,10 +6535,10 @@
         <v>118</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
@@ -6539,10 +6548,10 @@
       <c r="E49" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="76">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G49" s="34"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="78" t="s">
         <v>119</v>
       </c>
@@ -6550,69 +6559,31 @@
         <v>119</v>
       </c>
       <c r="J49" s="23"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="38"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="18"/>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="84" t="s">
+      <c r="E50" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="85"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="84" t="s">
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="I50" s="86" t="s">
         <v>120</v>
       </c>
       <c r="J50" s="23"/>
-      <c r="K50" s="36"/>
+      <c r="K50" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="K46:K50"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="D47:E47"/>
@@ -6629,7 +6600,45 @@
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{84593C03-D489-4A05-BA6A-1EAFC51600F5}">
@@ -6691,18 +6700,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -6851,14 +6860,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -6896,16 +6905,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -6916,16 +6925,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -6936,14 +6945,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -6951,14 +6960,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -6966,14 +6975,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -7013,11 +7022,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -7059,11 +7068,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -7097,11 +7106,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -7116,11 +7125,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -7139,156 +7148,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -7307,16 +7316,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -7325,14 +7334,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -7348,16 +7357,16 @@
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="67" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="18"/>
@@ -7369,18 +7378,18 @@
       <c r="C40" s="18">
         <v>2</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="31" t="s">
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="67" t="s">
         <v>89</v>
       </c>
       <c r="J40" s="18"/>
@@ -7392,20 +7401,20 @@
       <c r="C41" s="18">
         <v>3</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="67" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="19"/>
@@ -7417,20 +7426,20 @@
       <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="G42" s="32"/>
-      <c r="H42" s="31" t="s">
+      <c r="G42" s="67"/>
+      <c r="H42" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="67" t="s">
         <v>91</v>
       </c>
       <c r="J42" s="19"/>
@@ -7442,18 +7451,18 @@
       <c r="C43" s="18">
         <v>5</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="67" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="19"/>
@@ -7465,18 +7474,18 @@
       <c r="C44" s="18">
         <v>6</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="31" t="s">
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="67" t="s">
         <v>76</v>
       </c>
       <c r="J44" s="19"/>
@@ -7488,18 +7497,18 @@
       <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31" t="s">
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="67" t="s">
         <v>93</v>
       </c>
       <c r="J45" s="19"/>
@@ -7510,187 +7519,152 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31" t="s">
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="67" t="s">
         <v>94</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31" t="s">
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="67" t="s">
         <v>117</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="31" t="s">
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="67" t="s">
         <v>125</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="67" t="s">
         <v>101</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="67" t="s">
         <v>126</v>
       </c>
       <c r="J49" s="19"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="37"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="18">
         <v>12</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="67" t="s">
         <v>124</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I50" s="32" t="s">
+      <c r="I50" s="67" t="s">
         <v>125</v>
       </c>
       <c r="J50" s="19"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="69"/>
     </row>
     <row r="51" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="37"/>
+      <c r="B51" s="71"/>
       <c r="C51" s="18">
         <v>13</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="31" t="s">
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="67" t="s">
         <v>120</v>
       </c>
       <c r="J51" s="23"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="69"/>
     </row>
     <row r="52" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="38"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="24"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="36"/>
+      <c r="K52" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
@@ -7707,11 +7681,46 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificador" prompt="Id unico" sqref="C5" xr:uid="{B4A215E3-4041-4EF2-919B-3E2C4A5F6330}"/>
@@ -7773,18 +7782,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -7933,14 +7942,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -7978,16 +7987,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -7998,16 +8007,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -8018,14 +8027,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -8033,14 +8042,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -8048,14 +8057,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -8095,11 +8104,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -8141,11 +8150,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -8179,11 +8188,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -8198,11 +8207,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -8221,154 +8230,154 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -8387,16 +8396,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -8405,14 +8414,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -8432,8 +8441,8 @@
         <v>65</v>
       </c>
       <c r="E39" s="79"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="78" t="s">
         <v>74</v>
       </c>
@@ -8455,8 +8464,8 @@
       <c r="E40" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="78" t="s">
         <v>75</v>
       </c>
@@ -8501,8 +8510,8 @@
       <c r="E42" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="78" t="s">
         <v>77</v>
       </c>
@@ -8524,8 +8533,8 @@
       <c r="E43" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="78" t="s">
         <v>78</v>
       </c>
@@ -8547,8 +8556,8 @@
       <c r="E44" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="78" t="s">
         <v>79</v>
       </c>
@@ -8564,12 +8573,12 @@
       <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="19"/>
       <c r="K45" s="4"/>
     </row>
@@ -8578,90 +8587,91 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="32"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="23"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="38"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="36"/>
+      <c r="K50" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C27:F30"/>
-    <mergeCell ref="G27:J30"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J14"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:I43"/>
@@ -8676,26 +8686,25 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="C27:F30"/>
+    <mergeCell ref="G27:J30"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificador" prompt="Id unico" sqref="C5" xr:uid="{B4ED601C-427F-44D3-AC06-66D8D89A3E70}"/>
@@ -8757,18 +8766,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -8917,14 +8926,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>68</v>
       </c>
@@ -8962,16 +8971,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -8982,16 +8991,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -9002,14 +9011,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -9017,14 +9026,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -9032,14 +9041,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -9079,11 +9088,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -9125,11 +9134,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -9163,11 +9172,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -9182,11 +9191,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -9205,156 +9214,156 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -9373,16 +9382,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -9391,14 +9400,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -9414,16 +9423,16 @@
       <c r="C39" s="18">
         <v>1</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="67" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="18"/>
@@ -9435,18 +9444,18 @@
       <c r="C40" s="18">
         <v>2</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="31" t="s">
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="67" t="s">
         <v>89</v>
       </c>
       <c r="J40" s="18"/>
@@ -9458,10 +9467,10 @@
       <c r="C41" s="18">
         <v>3</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="67" t="s">
         <v>82</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -9470,10 +9479,10 @@
       <c r="G41" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H41" s="31" t="s">
+      <c r="H41" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="67" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="19"/>
@@ -9485,22 +9494,22 @@
       <c r="C42" s="18">
         <v>4</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="66">
         <v>123456789</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="67">
         <v>123456789</v>
       </c>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="67" t="s">
         <v>91</v>
       </c>
       <c r="J42" s="19"/>
@@ -9512,18 +9521,18 @@
       <c r="C43" s="18">
         <v>5</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="31" t="s">
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="67" t="s">
         <v>92</v>
       </c>
       <c r="J43" s="19"/>
@@ -9535,18 +9544,18 @@
       <c r="C44" s="18">
         <v>6</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="31" t="s">
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="67" t="s">
         <v>76</v>
       </c>
       <c r="J44" s="19"/>
@@ -9558,18 +9567,18 @@
       <c r="C45" s="18">
         <v>7</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31" t="s">
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="67" t="s">
         <v>93</v>
       </c>
       <c r="J45" s="19"/>
@@ -9580,103 +9589,143 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="E46" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31" t="s">
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="67" t="s">
         <v>94</v>
       </c>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31" t="s">
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="67" t="s">
         <v>108</v>
       </c>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="18">
         <v>10</v>
       </c>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="67" t="s">
         <v>106</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="31" t="s">
+      <c r="H48" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="67" t="s">
         <v>109</v>
       </c>
       <c r="J48" s="19"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="37"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="18">
         <v>11</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="32" t="s">
+      <c r="E49" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="31" t="s">
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="I49" s="32" t="s">
+      <c r="I49" s="67" t="s">
         <v>110</v>
       </c>
       <c r="J49" s="23"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="69"/>
     </row>
     <row r="50" spans="2:11" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="38"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="24"/>
       <c r="D50" s="25"/>
       <c r="E50" s="26"/>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="36"/>
+      <c r="K50" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="C27:F30"/>
     <mergeCell ref="G27:J30"/>
     <mergeCell ref="B2:K2"/>
@@ -9690,46 +9739,6 @@
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17" xr:uid="{3A7B7BF0-23DB-4429-9A5B-9A417FE5152F}">
@@ -9791,18 +9800,18 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:21" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="9"/>
@@ -9951,14 +9960,14 @@
     </row>
     <row r="8" spans="2:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
       <c r="J8" s="14" t="s">
         <v>57</v>
       </c>
@@ -9996,16 +10005,16 @@
     </row>
     <row r="10" spans="2:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
       <c r="K10" s="4"/>
       <c r="M10" t="s">
         <v>28</v>
@@ -10016,16 +10025,16 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="4"/>
       <c r="M11" t="s">
         <v>29</v>
@@ -10036,14 +10045,14 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="4"/>
       <c r="O12" t="s">
         <v>41</v>
@@ -10051,14 +10060,14 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="4"/>
       <c r="O13" t="s">
         <v>42</v>
@@ -10066,14 +10075,14 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="4"/>
       <c r="O14" t="s">
         <v>43</v>
@@ -10113,11 +10122,11 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="3"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15" t="s">
@@ -10159,11 +10168,11 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="6"/>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="3"/>
       <c r="G20" s="7"/>
       <c r="H20" s="15" t="s">
@@ -10197,11 +10206,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="4"/>
       <c r="V22" s="20"/>
     </row>
@@ -10216,11 +10225,11 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="55" t="s">
+      <c r="H23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="4"/>
       <c r="V23" s="20"/>
     </row>
@@ -10239,152 +10248,152 @@
     </row>
     <row r="25" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="6"/>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="4"/>
       <c r="U25" s="17"/>
       <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="6"/>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="58" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="6"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="6"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="6"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="4"/>
       <c r="V29" s="20"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="6"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="4"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="6"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="4"/>
       <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="6"/>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="39"/>
       <c r="K32" s="4"/>
       <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B33" s="6"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="47"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="4"/>
       <c r="V33" s="20"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="50"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
       <c r="K34" s="4"/>
       <c r="V34" s="20"/>
     </row>
     <row r="35" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="6"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="50"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
       <c r="K35" s="4"/>
       <c r="V35" s="20"/>
     </row>
@@ -10403,16 +10412,16 @@
     </row>
     <row r="37" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="6"/>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="39"/>
       <c r="K37" s="4"/>
       <c r="V37" s="20"/>
     </row>
@@ -10421,14 +10430,14 @@
       <c r="C38" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="51"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="16" t="s">
         <v>15</v>
       </c>
@@ -10448,8 +10457,8 @@
         <v>65</v>
       </c>
       <c r="E39" s="79"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="78" t="s">
         <v>74</v>
       </c>
@@ -10471,8 +10480,8 @@
       <c r="E40" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
       <c r="H40" s="78" t="s">
         <v>75</v>
       </c>
@@ -10494,8 +10503,8 @@
       <c r="E41" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
       <c r="H41" s="78" t="s">
         <v>76</v>
       </c>
@@ -10517,8 +10526,8 @@
       <c r="E42" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
       <c r="H42" s="78" t="s">
         <v>77</v>
       </c>
@@ -10540,8 +10549,8 @@
       <c r="E43" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="78" t="s">
         <v>78</v>
       </c>
@@ -10563,8 +10572,8 @@
       <c r="E44" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="78" t="s">
         <v>79</v>
       </c>
@@ -10582,10 +10591,10 @@
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="88"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
       <c r="J45" s="19"/>
       <c r="K45" s="4"/>
     </row>
@@ -10594,31 +10603,31 @@
       <c r="C46" s="18">
         <v>8</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="32"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="67"/>
       <c r="J46" s="19"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="69"/>
     </row>
     <row r="47" spans="2:22" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="37"/>
+      <c r="B47" s="71"/>
       <c r="C47" s="18">
         <v>9</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="19"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="69"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B48" s="37"/>
+      <c r="B48" s="71"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -10627,10 +10636,10 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="69"/>
     </row>
     <row r="49" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="38"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
@@ -10639,10 +10648,45 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="36"/>
+      <c r="K49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C33:J35"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="C27:F30"/>
     <mergeCell ref="G27:J30"/>
     <mergeCell ref="B2:K2"/>
@@ -10656,41 +10700,6 @@
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:J26"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C33:J35"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Identificador" prompt="Id unico" sqref="C5" xr:uid="{BE895A45-11A9-4977-A11D-64197102FDC4}"/>
